--- a/TFM - activationHistory-NONE.xlsx
+++ b/TFM - activationHistory-NONE.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1230" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="PCST560N" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>Tables</t>
   </si>
@@ -37,12 +37,6 @@
     <t>DEVICE_ASSN_EFF_TS</t>
   </si>
   <si>
-    <t xml:space="preserve">DEVICE_ID_SIM </t>
-  </si>
-  <si>
-    <t>ICC_CTE</t>
-  </si>
-  <si>
     <t>DEVICE_ID_SIM</t>
   </si>
   <si>
@@ -55,15 +49,9 @@
     <t>DEVICE_ID_TYP_EQP</t>
   </si>
   <si>
-    <t xml:space="preserve">DVC_TRANS_RSN_CD </t>
-  </si>
-  <si>
     <t>DVC_SIM_EQP_HIST</t>
   </si>
   <si>
-    <t xml:space="preserve">DEVICE_ID_SIM  </t>
-  </si>
-  <si>
     <t>EQUIPMENT_ORDER</t>
   </si>
   <si>
@@ -82,27 +70,15 @@
     <t>CUST_ID_NO</t>
   </si>
   <si>
-    <t xml:space="preserve">ACCT_NO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPA </t>
-  </si>
-  <si>
     <t>MTN_EFF_DT</t>
   </si>
   <si>
-    <t xml:space="preserve">DEVICE_ID </t>
-  </si>
-  <si>
     <t>PRODUCT</t>
   </si>
   <si>
     <t>PROD_ID</t>
   </si>
   <si>
-    <t>PROD_NAME</t>
-  </si>
-  <si>
     <t>DACC_XREF</t>
   </si>
   <si>
@@ -113,6 +89,24 @@
   </si>
   <si>
     <t>TERMNL_OPT_CD</t>
+  </si>
+  <si>
+    <t>ACCT_NO</t>
+  </si>
+  <si>
+    <t>DVC_TRANS_RSN_CD</t>
+  </si>
+  <si>
+    <t>DVC_EQP_TRANS_TS</t>
+  </si>
+  <si>
+    <t>SKU_ID</t>
+  </si>
+  <si>
+    <t>ACTV_REQ_DT</t>
+  </si>
+  <si>
+    <t>DISCONN_REQ_DT</t>
   </si>
 </sst>
 </file>
@@ -150,7 +144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -173,25 +167,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -202,6 +184,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -250,7 +235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,7 +270,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -494,9 +479,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -508,234 +495,297 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="1" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-    </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B26" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B35" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
